--- a/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac-35/Dakshiner Pac.-35,.xlsx
+++ b/Civilworks cost/Protective Work Latest/Flood Fuse -14 (For Working)-2/Pac-35/Dakshiner Pac.-35,.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Protective Work Latest\Flood Fuse -14 (For Working)-2\Pac-35\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Detail(Lot-2)" sheetId="4" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Abst(Lot-2)'!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Detail(Lot-2)'!$2:$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -897,7 +902,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
@@ -1643,6 +1648,54 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1651,54 +1704,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1770,7 +1775,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1805,7 +1810,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2016,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O196"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A156" zoomScale="118" zoomScaleSheetLayoutView="118" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A156" zoomScale="118" zoomScaleSheetLayoutView="118" workbookViewId="0">
       <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
@@ -2037,36 +2042,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="182" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
       <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="183" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="24" t="s">
@@ -2077,18 +2082,18 @@
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="188"/>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="188"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -2717,18 +2722,18 @@
       <c r="A30" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="187" t="s">
+      <c r="B30" s="186" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="188"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="188"/>
-      <c r="F30" s="188"/>
-      <c r="G30" s="188"/>
-      <c r="H30" s="188"/>
-      <c r="I30" s="188"/>
-      <c r="J30" s="188"/>
-      <c r="K30" s="189"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="187"/>
       <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2916,13 +2921,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
-      <c r="B41" s="199" t="s">
+      <c r="B41" s="188" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="200"/>
-      <c r="D41" s="200"/>
-      <c r="E41" s="200"/>
-      <c r="F41" s="200"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="189"/>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
       <c r="I41" s="28"/>
@@ -3152,18 +3157,18 @@
       <c r="A51" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="193" t="s">
+      <c r="B51" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="193"/>
-      <c r="K51" s="193"/>
+      <c r="C51" s="182"/>
+      <c r="D51" s="182"/>
+      <c r="E51" s="182"/>
+      <c r="F51" s="182"/>
+      <c r="G51" s="182"/>
+      <c r="H51" s="182"/>
+      <c r="I51" s="182"/>
+      <c r="J51" s="182"/>
+      <c r="K51" s="182"/>
       <c r="L51" s="30"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3210,18 +3215,18 @@
       <c r="A54" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="188" t="s">
+      <c r="B54" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="188"/>
-      <c r="D54" s="188"/>
-      <c r="E54" s="188"/>
-      <c r="F54" s="188"/>
-      <c r="G54" s="188"/>
-      <c r="H54" s="188"/>
-      <c r="I54" s="188"/>
-      <c r="J54" s="188"/>
-      <c r="K54" s="188"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="185"/>
+      <c r="E54" s="185"/>
+      <c r="F54" s="185"/>
+      <c r="G54" s="185"/>
+      <c r="H54" s="185"/>
+      <c r="I54" s="185"/>
+      <c r="J54" s="185"/>
+      <c r="K54" s="185"/>
       <c r="L54" s="26"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3265,25 +3270,25 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="182" t="s">
+      <c r="A57" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="187" t="s">
+      <c r="B57" s="186" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="188"/>
-      <c r="D57" s="188"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="188"/>
-      <c r="G57" s="188"/>
-      <c r="H57" s="188"/>
-      <c r="I57" s="188"/>
-      <c r="J57" s="188"/>
-      <c r="K57" s="189"/>
+      <c r="C57" s="185"/>
+      <c r="D57" s="185"/>
+      <c r="E57" s="185"/>
+      <c r="F57" s="185"/>
+      <c r="G57" s="185"/>
+      <c r="H57" s="185"/>
+      <c r="I57" s="185"/>
+      <c r="J57" s="185"/>
+      <c r="K57" s="187"/>
       <c r="L57" s="132"/>
     </row>
     <row r="58" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="183"/>
+      <c r="A58" s="199"/>
       <c r="B58" s="89" t="s">
         <v>92</v>
       </c>
@@ -3299,7 +3304,7 @@
       <c r="L58" s="115"/>
     </row>
     <row r="59" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="183"/>
+      <c r="A59" s="199"/>
       <c r="B59" s="129" t="s">
         <v>37</v>
       </c>
@@ -3315,7 +3320,7 @@
       <c r="L59" s="115"/>
     </row>
     <row r="60" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="183"/>
+      <c r="A60" s="199"/>
       <c r="B60" s="126" t="s">
         <v>29</v>
       </c>
@@ -3344,15 +3349,15 @@
       <c r="L60" s="115"/>
     </row>
     <row r="61" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="183"/>
-      <c r="B61" s="185" t="s">
+      <c r="A61" s="199"/>
+      <c r="B61" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="186"/>
-      <c r="D61" s="186"/>
-      <c r="E61" s="186"/>
-      <c r="F61" s="186"/>
-      <c r="G61" s="186"/>
+      <c r="C61" s="196"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="196"/>
+      <c r="F61" s="196"/>
+      <c r="G61" s="196"/>
       <c r="H61" s="131">
         <v>13.79</v>
       </c>
@@ -3364,7 +3369,7 @@
       <c r="L61" s="115"/>
     </row>
     <row r="62" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="183"/>
+      <c r="A62" s="199"/>
       <c r="B62" s="28" t="s">
         <v>96</v>
       </c>
@@ -3404,7 +3409,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="184"/>
+      <c r="A63" s="200"/>
       <c r="B63" s="133"/>
       <c r="C63" s="133"/>
       <c r="D63" s="133"/>
@@ -3518,14 +3523,14 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
-      <c r="B69" s="185" t="s">
+      <c r="B69" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="186"/>
-      <c r="D69" s="186"/>
-      <c r="E69" s="186"/>
-      <c r="F69" s="186"/>
-      <c r="G69" s="186"/>
+      <c r="C69" s="196"/>
+      <c r="D69" s="196"/>
+      <c r="E69" s="196"/>
+      <c r="F69" s="196"/>
+      <c r="G69" s="196"/>
       <c r="H69" s="131">
         <v>15.59</v>
       </c>
@@ -3651,10 +3656,10 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
-      <c r="B75" s="194" t="s">
+      <c r="B75" s="193" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="195"/>
+      <c r="C75" s="194"/>
       <c r="D75" s="37"/>
       <c r="E75" s="36" t="s">
         <v>31</v>
@@ -3775,18 +3780,18 @@
       <c r="A80" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="187" t="s">
+      <c r="B80" s="186" t="s">
         <v>99</v>
       </c>
-      <c r="C80" s="188"/>
-      <c r="D80" s="188"/>
-      <c r="E80" s="188"/>
-      <c r="F80" s="188"/>
-      <c r="G80" s="188"/>
-      <c r="H80" s="188"/>
-      <c r="I80" s="188"/>
-      <c r="J80" s="188"/>
-      <c r="K80" s="189"/>
+      <c r="C80" s="185"/>
+      <c r="D80" s="185"/>
+      <c r="E80" s="185"/>
+      <c r="F80" s="185"/>
+      <c r="G80" s="185"/>
+      <c r="H80" s="185"/>
+      <c r="I80" s="185"/>
+      <c r="J80" s="185"/>
+      <c r="K80" s="187"/>
       <c r="L80" s="139"/>
     </row>
     <row r="81" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3852,14 +3857,14 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
-      <c r="B84" s="185" t="s">
+      <c r="B84" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="C84" s="186"/>
-      <c r="D84" s="186"/>
-      <c r="E84" s="186"/>
-      <c r="F84" s="186"/>
-      <c r="G84" s="186"/>
+      <c r="C84" s="196"/>
+      <c r="D84" s="196"/>
+      <c r="E84" s="196"/>
+      <c r="F84" s="196"/>
+      <c r="G84" s="196"/>
       <c r="H84" s="131">
         <v>13.79</v>
       </c>
@@ -3988,7 +3993,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
-      <c r="B90" s="188" t="s">
+      <c r="B90" s="185" t="s">
         <v>102</v>
       </c>
       <c r="C90" s="190"/>
@@ -4046,7 +4051,7 @@
       <c r="A93" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="B93" s="188" t="s">
+      <c r="B93" s="185" t="s">
         <v>107</v>
       </c>
       <c r="C93" s="190"/>
@@ -4137,14 +4142,14 @@
     </row>
     <row r="98" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="81"/>
-      <c r="B98" s="196" t="s">
+      <c r="B98" s="197" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="193"/>
-      <c r="D98" s="193"/>
-      <c r="E98" s="193"/>
-      <c r="F98" s="193"/>
-      <c r="G98" s="193"/>
+      <c r="C98" s="182"/>
+      <c r="D98" s="182"/>
+      <c r="E98" s="182"/>
+      <c r="F98" s="182"/>
+      <c r="G98" s="182"/>
       <c r="H98" s="131">
         <v>13.79</v>
       </c>
@@ -4800,18 +4805,18 @@
       <c r="A129" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="B129" s="193" t="s">
+      <c r="B129" s="182" t="s">
         <v>83</v>
       </c>
-      <c r="C129" s="193"/>
-      <c r="D129" s="193"/>
-      <c r="E129" s="193"/>
-      <c r="F129" s="193"/>
-      <c r="G129" s="193"/>
-      <c r="H129" s="193"/>
-      <c r="I129" s="193"/>
-      <c r="J129" s="193"/>
-      <c r="K129" s="193"/>
+      <c r="C129" s="182"/>
+      <c r="D129" s="182"/>
+      <c r="E129" s="182"/>
+      <c r="F129" s="182"/>
+      <c r="G129" s="182"/>
+      <c r="H129" s="182"/>
+      <c r="I129" s="182"/>
+      <c r="J129" s="182"/>
+      <c r="K129" s="182"/>
       <c r="L129" s="30"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -5110,7 +5115,7 @@
       <c r="A143" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="B143" s="188" t="s">
+      <c r="B143" s="185" t="s">
         <v>147</v>
       </c>
       <c r="C143" s="190"/>
@@ -5590,18 +5595,18 @@
       <c r="A168" s="149">
         <v>11</v>
       </c>
-      <c r="B168" s="187" t="s">
+      <c r="B168" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="C168" s="188"/>
-      <c r="D168" s="188"/>
-      <c r="E168" s="188"/>
-      <c r="F168" s="188"/>
-      <c r="G168" s="188"/>
-      <c r="H168" s="188"/>
-      <c r="I168" s="188"/>
-      <c r="J168" s="188"/>
-      <c r="K168" s="189"/>
+      <c r="C168" s="185"/>
+      <c r="D168" s="185"/>
+      <c r="E168" s="185"/>
+      <c r="F168" s="185"/>
+      <c r="G168" s="185"/>
+      <c r="H168" s="185"/>
+      <c r="I168" s="185"/>
+      <c r="J168" s="185"/>
+      <c r="K168" s="187"/>
       <c r="L168" s="117"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -5739,7 +5744,7 @@
       <c r="A175" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="B175" s="188" t="s">
+      <c r="B175" s="185" t="s">
         <v>152</v>
       </c>
       <c r="C175" s="190"/>
@@ -6273,12 +6278,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B80:K80"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B90:K90"/>
     <mergeCell ref="B175:K175"/>
     <mergeCell ref="B54:K54"/>
     <mergeCell ref="B64:K64"/>
@@ -6291,11 +6295,12 @@
     <mergeCell ref="B61:G61"/>
     <mergeCell ref="B98:G98"/>
     <mergeCell ref="B168:K168"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B80:K80"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B41:F41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6307,8 +6312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
